--- a/data/trans_orig/P36B06-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B06-Habitat-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>14398</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7991</v>
+        <v>7747</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24069</v>
+        <v>23813</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02077381174910494</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01153047912500619</v>
+        <v>0.0111777883415623</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03472885090847345</v>
+        <v>0.03435908680859952</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -764,19 +764,19 @@
         <v>5660</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2181</v>
+        <v>2392</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11542</v>
+        <v>12010</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.008222190583980203</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003168418353170933</v>
+        <v>0.00347482770880074</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01676769158036709</v>
+        <v>0.01744820444540201</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>20</v>
@@ -785,19 +785,19 @@
         <v>20057</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12603</v>
+        <v>12617</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>30012</v>
+        <v>30314</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01451941301511364</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009122921614562872</v>
+        <v>0.009133169289000582</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02172542130566428</v>
+        <v>0.02194418747137451</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>24779</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>15764</v>
+        <v>15597</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>36787</v>
+        <v>36538</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03575230422050107</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0227453078854813</v>
+        <v>0.02250447168944582</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05307813432473869</v>
+        <v>0.05271923241668729</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>23</v>
@@ -835,19 +835,19 @@
         <v>22420</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>15327</v>
+        <v>14958</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>33934</v>
+        <v>32655</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03257125276221928</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0222662029727571</v>
+        <v>0.02173049796685487</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04929702247773747</v>
+        <v>0.04743893250038291</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>47</v>
@@ -856,19 +856,19 @@
         <v>47199</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>34870</v>
+        <v>34788</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>62340</v>
+        <v>61293</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03416720505667995</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02524248561500761</v>
+        <v>0.02518273136828576</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04512736371675322</v>
+        <v>0.04436941156014607</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>93294</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>75878</v>
+        <v>76824</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>111834</v>
+        <v>112371</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1346108228058013</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1094826289260838</v>
+        <v>0.1108468223353</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1613624125498446</v>
+        <v>0.1621370608740674</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>73</v>
@@ -906,19 +906,19 @@
         <v>68769</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>55118</v>
+        <v>54342</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>85144</v>
+        <v>85772</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.09990435248153003</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08007299774962079</v>
+        <v>0.07894513303319273</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1236929999153081</v>
+        <v>0.124605378471185</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>168</v>
@@ -927,19 +927,19 @@
         <v>162063</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>138425</v>
+        <v>138917</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>185713</v>
+        <v>184140</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1173167935165361</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1002054941145374</v>
+        <v>0.1005611395670726</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1344366298459473</v>
+        <v>0.1332979043390168</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>211481</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>190616</v>
+        <v>188138</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>239379</v>
+        <v>237236</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3051396390436139</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.275033380031899</v>
+        <v>0.2714583318344078</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3453924430936143</v>
+        <v>0.3422998211409435</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>177</v>
@@ -977,19 +977,19 @@
         <v>174457</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>150436</v>
+        <v>154087</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>197846</v>
+        <v>199063</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2534423536767433</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2185455718534356</v>
+        <v>0.223849189879405</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2874200636723958</v>
+        <v>0.28918753433506</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>384</v>
@@ -998,19 +998,19 @@
         <v>385939</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>354440</v>
+        <v>354221</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>417282</v>
+        <v>421289</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2793791869159043</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2565776847410254</v>
+        <v>0.2564190937910767</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3020684058021137</v>
+        <v>0.3049694054030052</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>349113</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>323748</v>
+        <v>322044</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>374211</v>
+        <v>375676</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5037234221809789</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4671259591249152</v>
+        <v>0.4646677598098149</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.539936961757631</v>
+        <v>0.5420511881532765</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>417</v>
@@ -1048,19 +1048,19 @@
         <v>417044</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>390607</v>
+        <v>392781</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>443758</v>
+        <v>442466</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6058598504955272</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5674525496109104</v>
+        <v>0.5706110136436225</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6446687311949462</v>
+        <v>0.6427914107090922</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>759</v>
@@ -1069,19 +1069,19 @@
         <v>766157</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>731718</v>
+        <v>728368</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>800849</v>
+        <v>803607</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.554617401495766</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5296874743595762</v>
+        <v>0.5272622697304572</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5797311260978477</v>
+        <v>0.5817271871338415</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>19872</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11662</v>
+        <v>11471</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>31759</v>
+        <v>31237</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02068332457133204</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01213848089643075</v>
+        <v>0.01193949208306195</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03305630659942642</v>
+        <v>0.03251235544969393</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -1194,19 +1194,19 @@
         <v>17923</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10586</v>
+        <v>10744</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27951</v>
+        <v>27695</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01852851030759637</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01094395855336332</v>
+        <v>0.01110707422644928</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02889497957764581</v>
+        <v>0.02863033515615547</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>34</v>
@@ -1215,19 +1215,19 @@
         <v>37795</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>26682</v>
+        <v>25768</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>52250</v>
+        <v>52518</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01960224313871109</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01383874353320481</v>
+        <v>0.01336463755847766</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02709933191112317</v>
+        <v>0.02723808344382678</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>61954</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>46397</v>
+        <v>45641</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>81385</v>
+        <v>78689</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.06448479547112815</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04829160762347193</v>
+        <v>0.0475050128237265</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08470949042435751</v>
+        <v>0.08190274494438428</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>36</v>
@@ -1265,19 +1265,19 @@
         <v>39221</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>27602</v>
+        <v>27280</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>55296</v>
+        <v>53277</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04054586853081991</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02853460316706106</v>
+        <v>0.0282015602664794</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0571635651765242</v>
+        <v>0.05507601180636285</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>91</v>
@@ -1286,19 +1286,19 @@
         <v>101176</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>80586</v>
+        <v>83193</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>122531</v>
+        <v>123636</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.05247451232627359</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04179570522540738</v>
+        <v>0.04314796592192603</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.06355033806555654</v>
+        <v>0.06412351627935797</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>172929</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>150451</v>
+        <v>150688</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>197563</v>
+        <v>198314</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1799922154206673</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1565957728280815</v>
+        <v>0.1568430420130686</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2056325420282795</v>
+        <v>0.2064143743521836</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>143</v>
@@ -1336,19 +1336,19 @@
         <v>150674</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>127683</v>
+        <v>127081</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>177190</v>
+        <v>173663</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1557622068783578</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1319952306599197</v>
+        <v>0.131372309669057</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.183173579263929</v>
+        <v>0.1795279705757508</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>302</v>
@@ -1357,19 +1357,19 @@
         <v>323603</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>289446</v>
+        <v>293374</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>358222</v>
+        <v>358671</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1678358951344233</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1501204098361837</v>
+        <v>0.1521576124849763</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1857908536605198</v>
+        <v>0.1860237242320249</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>250702</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>225843</v>
+        <v>225520</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>279885</v>
+        <v>280521</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2609415116377165</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.235067888704459</v>
+        <v>0.2347314626136231</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2913164964621431</v>
+        <v>0.2919788171629008</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>218</v>
@@ -1407,19 +1407,19 @@
         <v>228716</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>202032</v>
+        <v>202217</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>256321</v>
+        <v>255659</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2364400272622395</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2088545760266868</v>
+        <v>0.2090464050116026</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2649769700253483</v>
+        <v>0.2642928039395213</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>450</v>
@@ -1428,19 +1428,19 @@
         <v>479418</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>441576</v>
+        <v>440692</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>518143</v>
+        <v>518811</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2486489905254515</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2290222336281562</v>
+        <v>0.2285640506341861</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2687334556166416</v>
+        <v>0.2690801680810491</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>455301</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>425020</v>
+        <v>422892</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>488519</v>
+        <v>486301</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4738981528991561</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4423800648572118</v>
+        <v>0.4401644841657513</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5084727082432364</v>
+        <v>0.5061635283215915</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>493</v>
@@ -1478,19 +1478,19 @@
         <v>530798</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>496393</v>
+        <v>500567</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>560295</v>
+        <v>564168</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5487233870209864</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5131563974549399</v>
+        <v>0.5174707522193541</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5792161527245717</v>
+        <v>0.5832202460851664</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>925</v>
@@ -1499,19 +1499,19 @@
         <v>986100</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>946494</v>
+        <v>941535</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1036587</v>
+        <v>1029842</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5114383588751406</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.490896928738067</v>
+        <v>0.4883248914259058</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5376233861942354</v>
+        <v>0.5341249786876183</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>13037</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6527</v>
+        <v>7139</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>22841</v>
+        <v>23771</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01921350451660418</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009619913542384681</v>
+        <v>0.01052220681938029</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03366339864923865</v>
+        <v>0.03503379256766546</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>18</v>
@@ -1624,19 +1624,19 @@
         <v>18040</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10593</v>
+        <v>10590</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>27871</v>
+        <v>27811</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02638070859366603</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01549003368740946</v>
+        <v>0.01548626877177357</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04075694974630907</v>
+        <v>0.04066936226935718</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>29</v>
@@ -1645,19 +1645,19 @@
         <v>31077</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>21412</v>
+        <v>20652</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>44480</v>
+        <v>44867</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02281113246701221</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01571696577264081</v>
+        <v>0.01515908785690777</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03264965869531023</v>
+        <v>0.03293365405087001</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>36859</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>26157</v>
+        <v>26373</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>49485</v>
+        <v>50804</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05432281437355683</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03855028489809682</v>
+        <v>0.03886834318635757</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07293190057433692</v>
+        <v>0.0748761672049631</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>23</v>
@@ -1695,19 +1695,19 @@
         <v>22282</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>15352</v>
+        <v>14671</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>33682</v>
+        <v>32484</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03258396464142459</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02244936132148306</v>
+        <v>0.02145438175819248</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04925440650483405</v>
+        <v>0.0475016804285202</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>59</v>
@@ -1716,19 +1716,19 @@
         <v>59141</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>46577</v>
+        <v>45604</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>75046</v>
+        <v>76882</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04341084750821537</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03418860026604683</v>
+        <v>0.03347477401869853</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05508600530949063</v>
+        <v>0.05643319116452117</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>101604</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>83766</v>
+        <v>83620</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>122274</v>
+        <v>123614</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1497464080461573</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1234555422005275</v>
+        <v>0.1232401327889242</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1802100414312871</v>
+        <v>0.1821845418774526</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>80</v>
@@ -1766,19 +1766,19 @@
         <v>77654</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>63972</v>
+        <v>61918</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>96509</v>
+        <v>94318</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1135555145793649</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.09354814193860336</v>
+        <v>0.09054516155250616</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1411280065744208</v>
+        <v>0.1379236638116359</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>178</v>
@@ -1787,19 +1787,19 @@
         <v>179258</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>157978</v>
+        <v>154774</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>205069</v>
+        <v>204882</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1315801372819311</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1159597404274773</v>
+        <v>0.113608316422147</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1505256119147653</v>
+        <v>0.1503889065002055</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>198843</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>171093</v>
+        <v>175152</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>221533</v>
+        <v>225048</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2930583171723423</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2521601177663207</v>
+        <v>0.2581421732373547</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3264994174632186</v>
+        <v>0.3316801228525983</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>175</v>
@@ -1837,19 +1837,19 @@
         <v>173271</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>153432</v>
+        <v>150286</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>198141</v>
+        <v>196735</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2533787609462509</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2243681025903144</v>
+        <v>0.2197679182161868</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2897470717091403</v>
+        <v>0.2876908250671188</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>360</v>
@@ -1858,19 +1858,19 @@
         <v>372113</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>339801</v>
+        <v>339050</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>404930</v>
+        <v>404377</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2731408878646375</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2494227102119422</v>
+        <v>0.2488713164279719</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2972287371457437</v>
+        <v>0.2968230887089162</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>328167</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>302054</v>
+        <v>300895</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>355495</v>
+        <v>356345</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4836589558913393</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4451731667940819</v>
+        <v>0.4434651109207799</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5239356389368773</v>
+        <v>0.5251879020136121</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>400</v>
@@ -1908,19 +1908,19 @@
         <v>392594</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>368197</v>
+        <v>365300</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>415803</v>
+        <v>419239</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5741010512392937</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5384248993630485</v>
+        <v>0.534189108023334</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6080400840643848</v>
+        <v>0.6130653235235134</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>711</v>
@@ -1929,19 +1929,19 @@
         <v>720761</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>684564</v>
+        <v>685927</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>756716</v>
+        <v>755158</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5290569948782039</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5024878868989316</v>
+        <v>0.5034880845492345</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5554491804368262</v>
+        <v>0.5543056824035796</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>26801</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>18007</v>
+        <v>18170</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>37466</v>
+        <v>38191</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02847059443895429</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01912890045904055</v>
+        <v>0.01930268448822084</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03980084698232735</v>
+        <v>0.04057062037994286</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>21</v>
@@ -2054,19 +2054,19 @@
         <v>21426</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>14662</v>
+        <v>14598</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>32718</v>
+        <v>31876</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02064865999188875</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01412982200071336</v>
+        <v>0.01406887904244661</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03153142872781712</v>
+        <v>0.03072011488909076</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>50</v>
@@ -2075,19 +2075,19 @@
         <v>48226</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>34917</v>
+        <v>36940</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>63355</v>
+        <v>63568</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02436932113363776</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01764414011651197</v>
+        <v>0.01866607383154583</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03201423464252794</v>
+        <v>0.03212186101832253</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>63446</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>49054</v>
+        <v>49569</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>78865</v>
+        <v>77471</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.06739994881115463</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.05211095173680081</v>
+        <v>0.05265799063023321</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0837791416727411</v>
+        <v>0.08229830591325046</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>28</v>
@@ -2125,19 +2125,19 @@
         <v>29289</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>20055</v>
+        <v>19939</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>41061</v>
+        <v>41877</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.02822653019975452</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01932798053404547</v>
+        <v>0.01921604500342575</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.03957196101942757</v>
+        <v>0.0403584597782473</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>97</v>
@@ -2146,19 +2146,19 @@
         <v>92735</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>75223</v>
+        <v>76330</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>110926</v>
+        <v>112099</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.04686015816010948</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03801112721706579</v>
+        <v>0.03857046909695805</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.05605239597793784</v>
+        <v>0.05664497421960928</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>148747</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>128216</v>
+        <v>127601</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>169912</v>
+        <v>171537</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1580162417456435</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1362063078551927</v>
+        <v>0.1355523823346158</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1805002473839478</v>
+        <v>0.1822267155094348</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>144</v>
@@ -2196,19 +2196,19 @@
         <v>147367</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>124111</v>
+        <v>126573</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>170013</v>
+        <v>173325</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1420221839657041</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1196094686211549</v>
+        <v>0.1219818794318954</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1638461727739</v>
+        <v>0.1670382783963271</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>301</v>
@@ -2217,19 +2217,19 @@
         <v>296114</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>266841</v>
+        <v>265262</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>329401</v>
+        <v>328786</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1496300806673997</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1348377689630879</v>
+        <v>0.134039969396515</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1664500050513165</v>
+        <v>0.1661394270672379</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>283268</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>253202</v>
+        <v>257117</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>311665</v>
+        <v>312421</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3009202114241449</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2689807031388286</v>
+        <v>0.2731392475898893</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.331086935285638</v>
+        <v>0.3318894266678861</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>282</v>
@@ -2267,19 +2267,19 @@
         <v>294380</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>264314</v>
+        <v>264656</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>323324</v>
+        <v>324228</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2837025904559249</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2547268279139159</v>
+        <v>0.2550563243638886</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3115965854285079</v>
+        <v>0.3124684207320753</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>573</v>
@@ -2288,19 +2288,19 @@
         <v>577649</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>538541</v>
+        <v>538828</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>618932</v>
+        <v>616192</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2918924997070632</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2721310959581428</v>
+        <v>0.2722762052787843</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3127537021062567</v>
+        <v>0.3113688790012111</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>419078</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>391255</v>
+        <v>391359</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>449503</v>
+        <v>448775</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4451930035801027</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4156362717770844</v>
+        <v>0.4157466329037288</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.47751433313514</v>
+        <v>0.4767408766902094</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>521</v>
@@ -2338,19 +2338,19 @@
         <v>545174</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>513272</v>
+        <v>513667</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>578196</v>
+        <v>575868</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5254000353867277</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4946550647788308</v>
+        <v>0.4950355730603447</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5572240206055561</v>
+        <v>0.5549809549059727</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>968</v>
@@ -2359,19 +2359,19 @@
         <v>964252</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>919153</v>
+        <v>922157</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1006437</v>
+        <v>1006311</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4872479403317899</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4644585669394886</v>
+        <v>0.4659765042365795</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5085643100943716</v>
+        <v>0.5085008379943949</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>74106</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>57977</v>
+        <v>57954</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>95041</v>
+        <v>92932</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02263706308896276</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01771014915616418</v>
+        <v>0.01770292683570138</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02903192798216335</v>
+        <v>0.02838784786091489</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>62</v>
@@ -2484,19 +2484,19 @@
         <v>63049</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>49776</v>
+        <v>49267</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>80861</v>
+        <v>81184</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01866923044671853</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0147390912339077</v>
+        <v>0.014588260660082</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02394354015809129</v>
+        <v>0.02403924686130665</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>133</v>
@@ -2505,19 +2505,19 @@
         <v>137155</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>114447</v>
+        <v>114430</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>162686</v>
+        <v>163787</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02062227594292272</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01720787844786798</v>
+        <v>0.0172053830011654</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02446099748269104</v>
+        <v>0.02462646900479864</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>187038</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>160773</v>
+        <v>163955</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>214297</v>
+        <v>219366</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05713393358480894</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04911086754620883</v>
+        <v>0.05008297250891716</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.0654607560825945</v>
+        <v>0.06700903563829967</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>110</v>
@@ -2555,19 +2555,19 @@
         <v>113213</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>92617</v>
+        <v>94699</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>135845</v>
+        <v>138077</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03352310567325092</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02742448251367718</v>
+        <v>0.02804091576828992</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04022451328318728</v>
+        <v>0.04088552173940645</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>294</v>
@@ -2576,19 +2576,19 @@
         <v>300251</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>266505</v>
+        <v>271567</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>333388</v>
+        <v>336731</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.04514482091984934</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04007097805963238</v>
+        <v>0.04083202192745165</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05012726296433984</v>
+        <v>0.05062986262077465</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>516574</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>473243</v>
+        <v>474105</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>557930</v>
+        <v>557945</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1577966028534657</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1445604598619452</v>
+        <v>0.1448235949463249</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1704295678912087</v>
+        <v>0.1704339942374989</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>440</v>
@@ -2626,19 +2626,19 @@
         <v>444465</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>408345</v>
+        <v>405748</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>488519</v>
+        <v>486766</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1316088977983254</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1209135471987036</v>
+        <v>0.120144682878876</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1446536528872455</v>
+        <v>0.1441347106904677</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>949</v>
@@ -2647,19 +2647,19 @@
         <v>961039</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>907923</v>
+        <v>907915</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1024938</v>
+        <v>1016248</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1444990028066196</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1365126528172702</v>
+        <v>0.1365114375851447</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1541066689013366</v>
+        <v>0.1528001717769665</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>944294</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>896181</v>
+        <v>893752</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>999396</v>
+        <v>992330</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2884510666534963</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2737540171136866</v>
+        <v>0.2730122837051124</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3052829617082556</v>
+        <v>0.3031245565041444</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>852</v>
@@ -2697,19 +2697,19 @@
         <v>870825</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>821529</v>
+        <v>821968</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>919158</v>
+        <v>923883</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2578569248226917</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.243260098915253</v>
+        <v>0.2433901454853151</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2721688886469132</v>
+        <v>0.2735679957042363</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1767</v>
@@ -2718,19 +2718,19 @@
         <v>1815119</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1743412</v>
+        <v>1748689</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1894359</v>
+        <v>1890639</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2729159649335894</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2621344253691106</v>
+        <v>0.2629277493887835</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.284830330568197</v>
+        <v>0.2842710121528773</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>1551659</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1494908</v>
+        <v>1495695</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1608410</v>
+        <v>1606654</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4739813338192663</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4566458179377809</v>
+        <v>0.4568862245678326</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4913168865691118</v>
+        <v>0.4907806166780536</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1831</v>
@@ -2768,19 +2768,19 @@
         <v>1885611</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1832242</v>
+        <v>1826592</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1947350</v>
+        <v>1939167</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.5583418412590134</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.5425389307739784</v>
+        <v>0.5408660012248312</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5766232823267281</v>
+        <v>0.5742002409764182</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>3363</v>
@@ -2789,19 +2789,19 @@
         <v>3437270</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>3359844</v>
+        <v>3359202</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>3516693</v>
+        <v>3520563</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5168179353970189</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.5051763927080075</v>
+        <v>0.5050799193207782</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5287597377369444</v>
+        <v>0.5293416324904602</v>
       </c>
     </row>
     <row r="33">
@@ -3133,19 +3133,19 @@
         <v>10144</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5284</v>
+        <v>5267</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18031</v>
+        <v>18840</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01441959084517274</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007511996937815178</v>
+        <v>0.007487086352856485</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02563149989333703</v>
+        <v>0.02678187326751856</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -3154,19 +3154,19 @@
         <v>9221</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4370</v>
+        <v>4229</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17393</v>
+        <v>16479</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01322845215952616</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006268778044940377</v>
+        <v>0.00606734152172676</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02495240280324803</v>
+        <v>0.02364070666572516</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>18</v>
@@ -3175,19 +3175,19 @@
         <v>19365</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12375</v>
+        <v>11521</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>31478</v>
+        <v>29647</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01382675116718412</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008836023558805341</v>
+        <v>0.008226345669971635</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02247571370706331</v>
+        <v>0.02116888944913656</v>
       </c>
     </row>
     <row r="5">
@@ -3204,19 +3204,19 @@
         <v>20946</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>12809</v>
+        <v>12611</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>32372</v>
+        <v>32155</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02977473467436259</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.018208325611226</v>
+        <v>0.01792716792814293</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04601698667681241</v>
+        <v>0.04570983666024252</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>13</v>
@@ -3225,19 +3225,19 @@
         <v>13727</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7819</v>
+        <v>7565</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>24338</v>
+        <v>22684</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01969276637853745</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01121717161813828</v>
+        <v>0.01085337114744547</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03491553604813506</v>
+        <v>0.03254326881354971</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>33</v>
@@ -3246,19 +3246,19 @@
         <v>34672</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>23662</v>
+        <v>24655</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>48009</v>
+        <v>48785</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0247568548002454</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01689550860193043</v>
+        <v>0.01760451172546624</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03427935464272081</v>
+        <v>0.03483357636971542</v>
       </c>
     </row>
     <row r="6">
@@ -3275,19 +3275,19 @@
         <v>63646</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>49718</v>
+        <v>50104</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>79788</v>
+        <v>80715</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.09047458125064479</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.07067526392025154</v>
+        <v>0.07122472575555605</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1134207875974703</v>
+        <v>0.1147382184695532</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>45</v>
@@ -3296,19 +3296,19 @@
         <v>47533</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>34469</v>
+        <v>36355</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>60642</v>
+        <v>63072</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.06819226667166364</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04944975274530557</v>
+        <v>0.05215613545271768</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0869979562570057</v>
+        <v>0.09048369249079102</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>107</v>
@@ -3317,19 +3317,19 @@
         <v>111179</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>91913</v>
+        <v>92707</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>132094</v>
+        <v>133138</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.07938448707519324</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0656274833746795</v>
+        <v>0.06619480949585996</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.09431808708917579</v>
+        <v>0.09506345605291094</v>
       </c>
     </row>
     <row r="7">
@@ -3346,19 +3346,19 @@
         <v>160042</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>136830</v>
+        <v>139036</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>183341</v>
+        <v>182181</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2275033025581442</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1945077507181889</v>
+        <v>0.1976434732581994</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2606244018244977</v>
+        <v>0.2589753593233922</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>126</v>
@@ -3367,19 +3367,19 @@
         <v>134702</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>117274</v>
+        <v>115947</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>159517</v>
+        <v>156221</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1932464507505673</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1682430708329135</v>
+        <v>0.1663397165593215</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2288464173777282</v>
+        <v>0.2241178029577321</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>279</v>
@@ -3388,19 +3388,19 @@
         <v>294744</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>264954</v>
+        <v>261179</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>327806</v>
+        <v>324913</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2104533811348606</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1891825982174863</v>
+        <v>0.1864872979236488</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2340601214780602</v>
+        <v>0.2319949393824659</v>
       </c>
     </row>
     <row r="8">
@@ -3417,19 +3417,19 @@
         <v>448692</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>423540</v>
+        <v>424139</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>476520</v>
+        <v>475742</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6378277906716757</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6020732841939562</v>
+        <v>0.6029247105900962</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6773857704244287</v>
+        <v>0.6762806339812961</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>458</v>
@@ -3438,19 +3438,19 @@
         <v>491866</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>467319</v>
+        <v>466301</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>515377</v>
+        <v>514989</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7056400640397054</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6704243225342963</v>
+        <v>0.6689628957109526</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7393692423147331</v>
+        <v>0.7388126822676186</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>887</v>
@@ -3459,19 +3459,19 @@
         <v>940558</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>904788</v>
+        <v>902062</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>977148</v>
+        <v>974754</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6715785258225166</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6460377362490124</v>
+        <v>0.644091562800474</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6977038819189247</v>
+        <v>0.6959946167601578</v>
       </c>
     </row>
     <row r="9">
@@ -3563,19 +3563,19 @@
         <v>21294</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12313</v>
+        <v>14113</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>31404</v>
+        <v>33539</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02097918172637055</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01213142329083653</v>
+        <v>0.0139044241120339</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03093983978821258</v>
+        <v>0.03304326514354461</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -3584,19 +3584,19 @@
         <v>15397</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8278</v>
+        <v>8712</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25842</v>
+        <v>25605</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01493287230632471</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.008028272532837203</v>
+        <v>0.008449558044144328</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02506299788476303</v>
+        <v>0.02483275724581169</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>33</v>
@@ -3605,19 +3605,19 @@
         <v>36691</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>25035</v>
+        <v>26114</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>52343</v>
+        <v>50824</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0179322352282121</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01223573352792723</v>
+        <v>0.01276267344143087</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02558173057497366</v>
+        <v>0.02483942387237769</v>
       </c>
     </row>
     <row r="11">
@@ -3634,19 +3634,19 @@
         <v>38459</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>26831</v>
+        <v>27205</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>52722</v>
+        <v>53009</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03789086560368064</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0264346602432925</v>
+        <v>0.02680352623049767</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0519434547550635</v>
+        <v>0.05222546145353332</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>29</v>
@@ -3655,19 +3655,19 @@
         <v>32975</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>22549</v>
+        <v>22922</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>46249</v>
+        <v>46071</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03198046047436573</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02186887007370644</v>
+        <v>0.02223097409606219</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0448540046844139</v>
+        <v>0.04468167454236758</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>64</v>
@@ -3676,19 +3676,19 @@
         <v>71434</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>54834</v>
+        <v>54982</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>91115</v>
+        <v>91087</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03491240602439447</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02679929262186481</v>
+        <v>0.02687155053250049</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04453115112107531</v>
+        <v>0.04451743846859938</v>
       </c>
     </row>
     <row r="12">
@@ -3705,19 +3705,19 @@
         <v>119881</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>101840</v>
+        <v>99382</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>145074</v>
+        <v>140675</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1181101092346261</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1003358049318427</v>
+        <v>0.09791435726234114</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1429304448158814</v>
+        <v>0.1385967142432712</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>72</v>
@@ -3726,19 +3726,19 @@
         <v>77997</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>62321</v>
+        <v>60926</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>97124</v>
+        <v>95149</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07564481785231797</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06044167867885274</v>
+        <v>0.05908826285880941</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09419493905840748</v>
+        <v>0.09227935404575854</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>183</v>
@@ -3747,19 +3747,19 @@
         <v>197878</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>172155</v>
+        <v>174756</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>226552</v>
+        <v>230327</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.09671036570816582</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08413864499093066</v>
+        <v>0.08540956543380582</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1107241209398935</v>
+        <v>0.1125691340635865</v>
       </c>
     </row>
     <row r="13">
@@ -3776,19 +3776,19 @@
         <v>246055</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>219412</v>
+        <v>219408</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>274238</v>
+        <v>274625</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2424203304541915</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2161703786215332</v>
+        <v>0.2161670159535977</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2701868548564433</v>
+        <v>0.270568297967797</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>178</v>
@@ -3797,19 +3797,19 @@
         <v>201716</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>175921</v>
+        <v>174361</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>229961</v>
+        <v>231609</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1956322542190224</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1706155972842665</v>
+        <v>0.169102217669861</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2230254396914839</v>
+        <v>0.2246243374190048</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>405</v>
@@ -3818,19 +3818,19 @@
         <v>447771</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>407517</v>
+        <v>405531</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>485337</v>
+        <v>484548</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2188421846570751</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1991687795598902</v>
+        <v>0.1981978780232501</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2372019471221161</v>
+        <v>0.2368163622255133</v>
       </c>
     </row>
     <row r="14">
@@ -3847,19 +3847,19 @@
         <v>589305</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>552791</v>
+        <v>555779</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>617162</v>
+        <v>622441</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5805995129811312</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5446245991688338</v>
+        <v>0.5475684933793932</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.608045141628986</v>
+        <v>0.6132457239318593</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>647</v>
@@ -3868,19 +3868,19 @@
         <v>703012</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>667031</v>
+        <v>670950</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>734168</v>
+        <v>732063</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6818095951479692</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.646914227652885</v>
+        <v>0.650714509595965</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7120264984430272</v>
+        <v>0.7099843720524601</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1187</v>
@@ -3889,19 +3889,19 @@
         <v>1292317</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1249767</v>
+        <v>1247699</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1337741</v>
+        <v>1340959</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6316028083821525</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6108072432911289</v>
+        <v>0.6097963820236405</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6538034781165195</v>
+        <v>0.6553762055666126</v>
       </c>
     </row>
     <row r="15">
@@ -3993,19 +3993,19 @@
         <v>23811</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>15970</v>
+        <v>16143</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>35727</v>
+        <v>34747</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03151631460213938</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02113857317386402</v>
+        <v>0.02136733578188399</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04728892375597185</v>
+        <v>0.04599127608459728</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -4014,19 +4014,19 @@
         <v>16459</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8700</v>
+        <v>9588</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>26907</v>
+        <v>27530</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0212369865977261</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01122534216806225</v>
+        <v>0.01237094516143674</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03471768504174955</v>
+        <v>0.03552170923054698</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>38</v>
@@ -4035,19 +4035,19 @@
         <v>40270</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>28528</v>
+        <v>28492</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>54032</v>
+        <v>55278</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02631116224882095</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01863903793699595</v>
+        <v>0.01861597647851466</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03530269295494454</v>
+        <v>0.03611721871459296</v>
       </c>
     </row>
     <row r="17">
@@ -4064,19 +4064,19 @@
         <v>22222</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>14556</v>
+        <v>14274</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>33181</v>
+        <v>32133</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02941313826007572</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01926651698432173</v>
+        <v>0.01889370707913772</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04391779405447847</v>
+        <v>0.04253148838049713</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>25</v>
@@ -4085,19 +4085,19 @@
         <v>29262</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>19159</v>
+        <v>20081</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>44006</v>
+        <v>43613</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03775671713620595</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02472068665493276</v>
+        <v>0.02591032152846625</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05678057799579297</v>
+        <v>0.05627414333175614</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>47</v>
@@ -4106,19 +4106,19 @@
         <v>51484</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>37788</v>
+        <v>36746</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>69470</v>
+        <v>66908</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03363808362649863</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02468980219881924</v>
+        <v>0.02400853329714777</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04538980071985146</v>
+        <v>0.04371577270742588</v>
       </c>
     </row>
     <row r="18">
@@ -4135,19 +4135,19 @@
         <v>76678</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>58858</v>
+        <v>60732</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>94868</v>
+        <v>95626</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1014912746258182</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.07790470949630604</v>
+        <v>0.08038562244383148</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1255679020774513</v>
+        <v>0.1265705151051542</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>56</v>
@@ -4156,19 +4156,19 @@
         <v>58410</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>44441</v>
+        <v>45318</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>74721</v>
+        <v>74157</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.0753666644649434</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.05734157060269419</v>
+        <v>0.05847388734234182</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.09641194496362744</v>
+        <v>0.09568412745887632</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>126</v>
@@ -4177,19 +4177,19 @@
         <v>135088</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>112254</v>
+        <v>115189</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>163865</v>
+        <v>160860</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.08826253282479561</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.07334354173094504</v>
+        <v>0.0752610557621477</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1070642593097702</v>
+        <v>0.1051008880396906</v>
       </c>
     </row>
     <row r="19">
@@ -4206,19 +4206,19 @@
         <v>207415</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>181782</v>
+        <v>182032</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>235556</v>
+        <v>235954</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2745353142055949</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2406075883797793</v>
+        <v>0.2409385708554789</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3117824138328487</v>
+        <v>0.3123088738670343</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>168</v>
@@ -4227,19 +4227,19 @@
         <v>187463</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>163154</v>
+        <v>161829</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>213972</v>
+        <v>214145</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2418832737483503</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2105169719780155</v>
+        <v>0.2088072319649839</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2760866876166917</v>
+        <v>0.2763103585815109</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>353</v>
@@ -4248,19 +4248,19 @@
         <v>394879</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>356995</v>
+        <v>359009</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>429934</v>
+        <v>430928</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2580012717902049</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2332489661328461</v>
+        <v>0.2345650053675913</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2809055480035519</v>
+        <v>0.281554571943519</v>
       </c>
     </row>
     <row r="20">
@@ -4277,19 +4277,19 @@
         <v>425388</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>394718</v>
+        <v>395437</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>453724</v>
+        <v>455836</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5630439583063718</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.522449473235244</v>
+        <v>0.5234012743184874</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6005502009815422</v>
+        <v>0.6033450408278378</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>440</v>
@@ -4298,19 +4298,19 @@
         <v>483421</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>454067</v>
+        <v>455584</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>512122</v>
+        <v>513832</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6237563580527743</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5858805125620159</v>
+        <v>0.5878386954081986</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6607884723637035</v>
+        <v>0.6629958949507612</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>826</v>
@@ -4319,19 +4319,19 @@
         <v>908809</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>869056</v>
+        <v>868532</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>950985</v>
+        <v>947610</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5937869495096799</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5678139623137852</v>
+        <v>0.567471409351904</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6213436531284122</v>
+        <v>0.6191385125773072</v>
       </c>
     </row>
     <row r="21">
@@ -4423,19 +4423,19 @@
         <v>19495</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>12265</v>
+        <v>11861</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>31014</v>
+        <v>31147</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02056975991165768</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01294175308450503</v>
+        <v>0.01251501059608699</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03272470922000344</v>
+        <v>0.03286475626392348</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>26</v>
@@ -4444,19 +4444,19 @@
         <v>26355</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>17558</v>
+        <v>17205</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>38158</v>
+        <v>37996</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02515201048072822</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01675643853124609</v>
+        <v>0.01642013710142288</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03641711504961366</v>
+        <v>0.03626271863242803</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>45</v>
@@ -4465,19 +4465,19 @@
         <v>45849</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>34037</v>
+        <v>33853</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>61247</v>
+        <v>59549</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0229757776855311</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0170563730492113</v>
+        <v>0.01696442325928618</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03069181705993737</v>
+        <v>0.02984104267782815</v>
       </c>
     </row>
     <row r="23">
@@ -4494,19 +4494,19 @@
         <v>27129</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>18028</v>
+        <v>18832</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>39170</v>
+        <v>40019</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02862470974569053</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0190225686165644</v>
+        <v>0.01987013478761353</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04132960381216469</v>
+        <v>0.04222626019720695</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>19</v>
@@ -4515,19 +4515,19 @@
         <v>19500</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>12442</v>
+        <v>12515</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>32161</v>
+        <v>30637</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01861002236481843</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01187385232090345</v>
+        <v>0.01194401590404874</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.03069373044566469</v>
+        <v>0.02923872950535026</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>46</v>
@@ -4536,19 +4536,19 @@
         <v>46629</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>34674</v>
+        <v>33923</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>62282</v>
+        <v>61056</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02336626403763497</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0173757977519079</v>
+        <v>0.01699924670619958</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03121031740179083</v>
+        <v>0.03059621847276079</v>
       </c>
     </row>
     <row r="24">
@@ -4565,19 +4565,19 @@
         <v>123732</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>102686</v>
+        <v>105536</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>143567</v>
+        <v>148838</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1305554088797369</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1083489047811406</v>
+        <v>0.1113553709927275</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1514841838486634</v>
+        <v>0.157045185954206</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>82</v>
@@ -4586,19 +4586,19 @@
         <v>88277</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>71915</v>
+        <v>72293</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>108522</v>
+        <v>109937</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.08424861531573687</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.06863409634214647</v>
+        <v>0.06899417134546199</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1035703462199986</v>
+        <v>0.1049211032527605</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>207</v>
@@ -4607,19 +4607,19 @@
         <v>212009</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>187094</v>
+        <v>187823</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>241886</v>
+        <v>240197</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1062409444726387</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.09375573804779275</v>
+        <v>0.09412097199725937</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1212126472440596</v>
+        <v>0.1203662655452256</v>
       </c>
     </row>
     <row r="25">
@@ -4636,19 +4636,19 @@
         <v>197829</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>172336</v>
+        <v>174536</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>222929</v>
+        <v>225412</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2087374168702095</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1818392155398182</v>
+        <v>0.1841603813037785</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2352224522064561</v>
+        <v>0.2378419786836601</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>174</v>
@@ -4657,19 +4657,19 @@
         <v>180177</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>156872</v>
+        <v>154161</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>207008</v>
+        <v>205058</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1719561098766446</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1497143301478564</v>
+        <v>0.14712700589481</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1975629426521195</v>
+        <v>0.1957017274667891</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>368</v>
@@ -4678,19 +4678,19 @@
         <v>378006</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>342246</v>
+        <v>342585</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>414358</v>
+        <v>417298</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1894245318503136</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1715048918741925</v>
+        <v>0.171674403557462</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2076408624822927</v>
+        <v>0.2091145732094597</v>
       </c>
     </row>
     <row r="26">
@@ -4707,19 +4707,19 @@
         <v>579554</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>550901</v>
+        <v>548164</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>609824</v>
+        <v>609108</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6115127045927053</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5812794413567061</v>
+        <v>0.5783914846240344</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6434516506391212</v>
+        <v>0.6426958005634227</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>699</v>
@@ -4728,19 +4728,19 @@
         <v>733502</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>704525</v>
+        <v>704151</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>762547</v>
+        <v>762774</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7000332419620718</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6723782106540765</v>
+        <v>0.6720215502529695</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7277535350142937</v>
+        <v>0.7279693113447816</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1244</v>
@@ -4749,19 +4749,19 @@
         <v>1313056</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1269052</v>
+        <v>1268315</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1353943</v>
+        <v>1360294</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6579924819538817</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6359415323171</v>
+        <v>0.6355718355342328</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6784814714070847</v>
+        <v>0.6816642279767906</v>
       </c>
     </row>
     <row r="27">
@@ -4853,19 +4853,19 @@
         <v>74743</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>59687</v>
+        <v>59768</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>94800</v>
+        <v>94181</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02184379388865649</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01744367608131352</v>
+        <v>0.01746722024397955</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02770546825280677</v>
+        <v>0.02752445949910438</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>61</v>
@@ -4874,19 +4874,19 @@
         <v>67432</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>51554</v>
+        <v>53305</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>87900</v>
+        <v>88132</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01898962997665723</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01451818327954864</v>
+        <v>0.0150113318220321</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02475365024503736</v>
+        <v>0.02481902789020812</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>134</v>
@@ -4895,19 +4895,19 @@
         <v>142175</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>120575</v>
+        <v>119345</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>166946</v>
+        <v>166548</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02039025756840052</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0172925114285393</v>
+        <v>0.01711603306087681</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02394279634965708</v>
+        <v>0.02388581907811686</v>
       </c>
     </row>
     <row r="29">
@@ -4924,19 +4924,19 @@
         <v>108755</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>89080</v>
+        <v>88631</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>130042</v>
+        <v>131024</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03178387573196234</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02603371990604366</v>
+        <v>0.0259024825660238</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03800483702118101</v>
+        <v>0.03829191367591906</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>86</v>
@@ -4945,19 +4945,19 @@
         <v>95464</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>76713</v>
+        <v>76083</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>117636</v>
+        <v>119009</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02688379346315078</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02160337385014621</v>
+        <v>0.02142609444253844</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03312781901691811</v>
+        <v>0.03351459969712207</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>190</v>
@@ -4966,19 +4966,19 @@
         <v>204219</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>178591</v>
+        <v>178051</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>239090</v>
+        <v>235027</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02928841724759981</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02561295264350595</v>
+        <v>0.02553546336353774</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03428954644279029</v>
+        <v>0.03370679977363276</v>
       </c>
     </row>
     <row r="30">
@@ -4995,19 +4995,19 @@
         <v>383938</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>348232</v>
+        <v>348622</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>424147</v>
+        <v>425715</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.112206172501739</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1017709965300006</v>
+        <v>0.1018850023735507</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1239573992776465</v>
+        <v>0.1244155753563673</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>255</v>
@@ -5016,19 +5016,19 @@
         <v>272217</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>240594</v>
+        <v>242197</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>303414</v>
+        <v>306606</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.07665996755818114</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.06775427243804871</v>
+        <v>0.06820574060337559</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.08544531813229046</v>
+        <v>0.0863442872729825</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>623</v>
@@ -5037,19 +5037,19 @@
         <v>656155</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>612392</v>
+        <v>604482</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>711167</v>
+        <v>706429</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.09410360322899812</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.08782717646634663</v>
+        <v>0.08669278020530029</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1019932169209782</v>
+        <v>0.1013137236087769</v>
       </c>
     </row>
     <row r="31">
@@ -5066,19 +5066,19 @@
         <v>811341</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>759357</v>
+        <v>755053</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>865802</v>
+        <v>865380</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2371151076932112</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2219226489058752</v>
+        <v>0.2206650135277195</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.253031507599292</v>
+        <v>0.2529080647095495</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>646</v>
@@ -5087,19 +5087,19 @@
         <v>704059</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>658029</v>
+        <v>656819</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>755450</v>
+        <v>754986</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1982721362077393</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1853094589436563</v>
+        <v>0.1849688940686354</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.212744524978968</v>
+        <v>0.2126140002848042</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1405</v>
@@ -5108,19 +5108,19 @@
         <v>1515400</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1446251</v>
+        <v>1442335</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1586830</v>
+        <v>1589631</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.217333598438106</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2074164843859816</v>
+        <v>0.2068549050411781</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.227577965571952</v>
+        <v>0.2279796695310472</v>
       </c>
     </row>
     <row r="32">
@@ -5137,19 +5137,19 @@
         <v>2042940</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1984872</v>
+        <v>1981039</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2107256</v>
+        <v>2103403</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5970510501844309</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5800808291932795</v>
+        <v>0.5789605315911199</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.6158476453109649</v>
+        <v>0.6147215280418531</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2244</v>
@@ -5158,19 +5158,19 @@
         <v>2411801</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2355800</v>
+        <v>2356129</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2473440</v>
+        <v>2466725</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.6791944727942716</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.6634238869659126</v>
+        <v>0.6635166946153882</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.696553069635</v>
+        <v>0.6946619777556908</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>4144</v>
@@ -5179,19 +5179,19 @@
         <v>4454740</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>4372989</v>
+        <v>4371356</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>4532924</v>
+        <v>4537576</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.6388841235168955</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.6271595519341167</v>
+        <v>0.6269254669229264</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.6500969820032708</v>
+        <v>0.6507641196440236</v>
       </c>
     </row>
     <row r="33">
@@ -5523,19 +5523,19 @@
         <v>22982</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14153</v>
+        <v>14298</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>34752</v>
+        <v>35616</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03411095497332988</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02100695382031815</v>
+        <v>0.02122144126159404</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05158044952219807</v>
+        <v>0.05286224610115597</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>14</v>
@@ -5544,19 +5544,19 @@
         <v>14124</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7654</v>
+        <v>8120</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>24744</v>
+        <v>22991</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02099192178395037</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01137622914094492</v>
+        <v>0.01206814879862454</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03677495674492954</v>
+        <v>0.034170730596134</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>34</v>
@@ -5565,19 +5565,19 @@
         <v>37106</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>26057</v>
+        <v>25232</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>50695</v>
+        <v>50889</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02755587896184951</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01935008016246125</v>
+        <v>0.01873734693198455</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03764671462304575</v>
+        <v>0.03779107276397846</v>
       </c>
     </row>
     <row r="5">
@@ -5594,19 +5594,19 @@
         <v>25163</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>16916</v>
+        <v>16662</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>37667</v>
+        <v>38853</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03734798338724986</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.025107607544806</v>
+        <v>0.02472996212557018</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05590695685701584</v>
+        <v>0.05766702812491734</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>29</v>
@@ -5615,19 +5615,19 @@
         <v>28841</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>19453</v>
+        <v>18583</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>40406</v>
+        <v>41175</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0428643537488269</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02891211035544153</v>
+        <v>0.02761805391548544</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0600530704146446</v>
+        <v>0.06119659296275198</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>52</v>
@@ -5636,19 +5636,19 @@
         <v>54004</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>41090</v>
+        <v>40683</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>69869</v>
+        <v>71277</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04010430136477341</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03051439871003372</v>
+        <v>0.03021176324495794</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0518861162915865</v>
+        <v>0.05293120910932334</v>
       </c>
     </row>
     <row r="6">
@@ -5665,19 +5665,19 @@
         <v>81373</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>65122</v>
+        <v>66281</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>100703</v>
+        <v>101216</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1207764427392617</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09665639872326903</v>
+        <v>0.09837627006687341</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1494656351314767</v>
+        <v>0.1502278289240672</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>78</v>
@@ -5686,19 +5686,19 @@
         <v>78444</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>62790</v>
+        <v>62892</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>96761</v>
+        <v>96817</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.116587006802161</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.09332160472930257</v>
+        <v>0.09347330169915753</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1438100194421549</v>
+        <v>0.1438939295931708</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>153</v>
@@ -5707,19 +5707,19 @@
         <v>159818</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>136337</v>
+        <v>135619</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>184161</v>
+        <v>185622</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1186831428278662</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1012460959064361</v>
+        <v>0.1007126282177162</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1367610396259297</v>
+        <v>0.1378460148290675</v>
       </c>
     </row>
     <row r="7">
@@ -5736,19 +5736,19 @@
         <v>191526</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>169263</v>
+        <v>169574</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>217733</v>
+        <v>213894</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2842682590547095</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2512251885300855</v>
+        <v>0.2516868652321702</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3231647635861364</v>
+        <v>0.3174678151548533</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>161</v>
@@ -5757,19 +5757,19 @@
         <v>158662</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>137447</v>
+        <v>139378</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>180753</v>
+        <v>182454</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2358094470630152</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2042790364560579</v>
+        <v>0.2071497923405414</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2686423233068918</v>
+        <v>0.2711708778359205</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>351</v>
@@ -5778,19 +5778,19 @@
         <v>350188</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>319410</v>
+        <v>319604</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>381985</v>
+        <v>383669</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2600552555927816</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2371993625104825</v>
+        <v>0.2373428874410176</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2836684011098901</v>
+        <v>0.284918771162668</v>
       </c>
     </row>
     <row r="8">
@@ -5807,19 +5807,19 @@
         <v>352706</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>326970</v>
+        <v>327714</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>379407</v>
+        <v>378266</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5234963598454491</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4852977740345424</v>
+        <v>0.486402369705656</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5631262671332843</v>
+        <v>0.561432953032084</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>384</v>
@@ -5828,19 +5828,19 @@
         <v>392768</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>367699</v>
+        <v>366480</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>417598</v>
+        <v>417911</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5837472706020466</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5464886938818596</v>
+        <v>0.5446774658956643</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6206507892972898</v>
+        <v>0.6211156693736546</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>727</v>
@@ -5849,19 +5849,19 @@
         <v>745474</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>709895</v>
+        <v>709296</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>781300</v>
+        <v>781505</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5536014212527293</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.527179593657035</v>
+        <v>0.5267352969067408</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5802065385357956</v>
+        <v>0.5803587030401443</v>
       </c>
     </row>
     <row r="9">
@@ -5953,19 +5953,19 @@
         <v>21771</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14070</v>
+        <v>14104</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33728</v>
+        <v>32360</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02135191168863793</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01379903040210583</v>
+        <v>0.01383219618680969</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0330784530621066</v>
+        <v>0.03173715002935017</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>22</v>
@@ -5974,19 +5974,19 @@
         <v>22477</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14377</v>
+        <v>14734</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>33553</v>
+        <v>33591</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0216293485162736</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01383446139980243</v>
+        <v>0.01417808724052388</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03228718211636724</v>
+        <v>0.03232454323183236</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>43</v>
@@ -5995,19 +5995,19 @@
         <v>44248</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>33457</v>
+        <v>33323</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>61052</v>
+        <v>59158</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02149194848652305</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01625073757720356</v>
+        <v>0.01618551635829504</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02965372564756547</v>
+        <v>0.02873392324426894</v>
       </c>
     </row>
     <row r="11">
@@ -6024,19 +6024,19 @@
         <v>38438</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>26584</v>
+        <v>27255</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>53090</v>
+        <v>52206</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03769772093351181</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02607209101831675</v>
+        <v>0.02673011020264425</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05206775015109368</v>
+        <v>0.05120074437217237</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>36</v>
@@ -6045,19 +6045,19 @@
         <v>37833</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>27194</v>
+        <v>26747</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>51844</v>
+        <v>53894</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03640625535421185</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02616846245848149</v>
+        <v>0.02573855220744106</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04988898556278953</v>
+        <v>0.05186170720525949</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>72</v>
@@ -6066,19 +6066,19 @@
         <v>76271</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>61153</v>
+        <v>60431</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>96403</v>
+        <v>95948</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03704585107958772</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02970314562240937</v>
+        <v>0.02935245934620892</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04682443024081587</v>
+        <v>0.04660333430114381</v>
       </c>
     </row>
     <row r="12">
@@ -6095,19 +6095,19 @@
         <v>150611</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>128275</v>
+        <v>129109</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>175269</v>
+        <v>173725</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1477126099929422</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1258063353376077</v>
+        <v>0.1266243219243328</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1718958537043967</v>
+        <v>0.170381770650595</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>133</v>
@@ -6116,19 +6116,19 @@
         <v>140145</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>119094</v>
+        <v>118041</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>165154</v>
+        <v>162648</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1348599270357673</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1146023124474799</v>
+        <v>0.1135892533217197</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1589259537925178</v>
+        <v>0.1565139615351</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>272</v>
@@ -6137,19 +6137,19 @@
         <v>290757</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>259908</v>
+        <v>258842</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>326485</v>
+        <v>327969</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1412251923674817</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1262413333063305</v>
+        <v>0.1257236585357716</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1585787958874527</v>
+        <v>0.159299617164624</v>
       </c>
     </row>
     <row r="13">
@@ -6166,19 +6166,19 @@
         <v>301476</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>273352</v>
+        <v>273268</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>331218</v>
+        <v>333478</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2956738791615668</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2680906506737518</v>
+        <v>0.2680082588026129</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.324843039063871</v>
+        <v>0.3270595289186062</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>289</v>
@@ -6187,19 +6187,19 @@
         <v>303017</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>272684</v>
+        <v>272376</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>331323</v>
+        <v>334265</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2915897935220574</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2624000404450063</v>
+        <v>0.262104041581214</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3188277397756873</v>
+        <v>0.3216592844151065</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>569</v>
@@ -6208,19 +6208,19 @@
         <v>604494</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>563561</v>
+        <v>559612</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>645676</v>
+        <v>644016</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2936124287041079</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2737307661046402</v>
+        <v>0.2718127617230385</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3136151201927742</v>
+        <v>0.312809140578281</v>
       </c>
     </row>
     <row r="14">
@@ -6237,19 +6237,19 @@
         <v>507328</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>474106</v>
+        <v>475590</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>539445</v>
+        <v>540929</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4975638782233412</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4649808623007599</v>
+        <v>0.4664369391914209</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5290628310964024</v>
+        <v>0.5305180211102875</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>494</v>
@@ -6258,19 +6258,19 @@
         <v>535718</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>502307</v>
+        <v>500430</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>571617</v>
+        <v>570836</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5155146755716898</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4833632194583956</v>
+        <v>0.4815571811248861</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5500593687923001</v>
+        <v>0.5493084956305856</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>967</v>
@@ -6279,19 +6279,19 @@
         <v>1043047</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>992512</v>
+        <v>996729</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1086032</v>
+        <v>1090407</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5066245793622997</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4820789100648172</v>
+        <v>0.4841271972322369</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5275029960998058</v>
+        <v>0.5296284090371747</v>
       </c>
     </row>
     <row r="15">
@@ -6383,19 +6383,19 @@
         <v>14576</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8056</v>
+        <v>7838</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>24435</v>
+        <v>25767</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01921535054079825</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01061941953320845</v>
+        <v>0.0103327744535558</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03221229656325582</v>
+        <v>0.03396775553824801</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>13</v>
@@ -6404,19 +6404,19 @@
         <v>12731</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6857</v>
+        <v>7587</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>20970</v>
+        <v>22155</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01621740074184626</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.008734575298402412</v>
+        <v>0.009664662096279832</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02671263350619276</v>
+        <v>0.02822250510757092</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>26</v>
@@ -6425,19 +6425,19 @@
         <v>27307</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>18585</v>
+        <v>18243</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>40565</v>
+        <v>38577</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0176906942962116</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01204039259910026</v>
+        <v>0.01181894915304323</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02627962444853188</v>
+        <v>0.0249916329397332</v>
       </c>
     </row>
     <row r="17">
@@ -6454,19 +6454,19 @@
         <v>31768</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>22076</v>
+        <v>21006</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>45165</v>
+        <v>45639</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0418792152634779</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02910194939858085</v>
+        <v>0.02769216064752465</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05954040778091448</v>
+        <v>0.06016526709857723</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>21</v>
@@ -6475,19 +6475,19 @@
         <v>22046</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>14260</v>
+        <v>13781</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>33266</v>
+        <v>33501</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02808330108282838</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0181649453924252</v>
+        <v>0.01755467853839784</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0423759682319572</v>
+        <v>0.04267572728991505</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>49</v>
@@ -6496,19 +6496,19 @@
         <v>53814</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>40207</v>
+        <v>40747</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>69955</v>
+        <v>71058</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03486307819785332</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02604787777118601</v>
+        <v>0.02639795121770693</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04532030380833618</v>
+        <v>0.04603447229974529</v>
       </c>
     </row>
     <row r="18">
@@ -6525,19 +6525,19 @@
         <v>122108</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>101872</v>
+        <v>101337</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>144866</v>
+        <v>144776</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1609717127394999</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1342961184560324</v>
+        <v>0.1335907854431694</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1909732380578264</v>
+        <v>0.1908546909233955</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>83</v>
@@ -6546,19 +6546,19 @@
         <v>88046</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>71492</v>
+        <v>72964</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>107535</v>
+        <v>109747</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1121583301752456</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.09107088200688311</v>
+        <v>0.09294698762662604</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1369854749868515</v>
+        <v>0.1398033419380425</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>189</v>
@@ -6567,19 +6567,19 @@
         <v>210153</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>183840</v>
+        <v>184563</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>239824</v>
+        <v>237582</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1361468712521595</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1191000151437513</v>
+        <v>0.1195685703847322</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1553692349612375</v>
+        <v>0.1539166519116302</v>
       </c>
     </row>
     <row r="19">
@@ -6596,19 +6596,19 @@
         <v>248681</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>223428</v>
+        <v>219450</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>275125</v>
+        <v>274975</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3278308747609051</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2945404170719544</v>
+        <v>0.28929605158611</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3626904913473694</v>
+        <v>0.36249302856818</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>265</v>
@@ -6617,19 +6617,19 @@
         <v>277677</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>250612</v>
+        <v>249529</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>303835</v>
+        <v>303659</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3537240463518347</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3192458961131577</v>
+        <v>0.3178663036789851</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3870458740286896</v>
+        <v>0.3868216553823335</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>496</v>
@@ -6638,19 +6638,19 @@
         <v>526359</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>488982</v>
+        <v>489449</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>561536</v>
+        <v>563882</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3409992692990875</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3167847597751177</v>
+        <v>0.3170872852995945</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3637888448510507</v>
+        <v>0.3653087515615802</v>
       </c>
     </row>
     <row r="20">
@@ -6667,19 +6667,19 @@
         <v>341433</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>313930</v>
+        <v>311431</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>369728</v>
+        <v>370928</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4501028466953189</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4138462695855323</v>
+        <v>0.4105523031879467</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4874036173373081</v>
+        <v>0.488986378769541</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>354</v>
@@ -6688,19 +6688,19 @@
         <v>384512</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>356381</v>
+        <v>357760</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>412773</v>
+        <v>412234</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.489816921648245</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4539818564488056</v>
+        <v>0.4557386197965465</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.525817994758406</v>
+        <v>0.5251309468674055</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>671</v>
@@ -6709,19 +6709,19 @@
         <v>725944</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>687847</v>
+        <v>685484</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>766391</v>
+        <v>765656</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4703000869546881</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4456190396970972</v>
+        <v>0.444087744694955</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4965034786383135</v>
+        <v>0.4960270456977934</v>
       </c>
     </row>
     <row r="21">
@@ -6813,19 +6813,19 @@
         <v>27182</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>18690</v>
+        <v>18016</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>38467</v>
+        <v>38695</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02905249848342127</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01997648510840665</v>
+        <v>0.01925539305626635</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04111483485872826</v>
+        <v>0.04135836713367707</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>21</v>
@@ -6834,19 +6834,19 @@
         <v>22165</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>14201</v>
+        <v>14751</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>32847</v>
+        <v>33817</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02127869769050008</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01363252675807982</v>
+        <v>0.01416042446886784</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03153275877169438</v>
+        <v>0.03246397030158821</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>47</v>
@@ -6855,19 +6855,19 @@
         <v>49347</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>36030</v>
+        <v>36705</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>63250</v>
+        <v>64350</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02495710505407431</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01822190162837194</v>
+        <v>0.0185634578811728</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03198854459745181</v>
+        <v>0.03254446786563032</v>
       </c>
     </row>
     <row r="23">
@@ -6884,19 +6884,19 @@
         <v>34072</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>23611</v>
+        <v>24864</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>45710</v>
+        <v>47484</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03641673356054796</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02523583358106632</v>
+        <v>0.02657487007829502</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04885609570617233</v>
+        <v>0.05075152498228462</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>25</v>
@@ -6905,19 +6905,19 @@
         <v>26356</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>17705</v>
+        <v>17077</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>38066</v>
+        <v>38385</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.02530191243942256</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01699630459160177</v>
+        <v>0.01639415101213786</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.03654368017606291</v>
+        <v>0.03684940221872153</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>59</v>
@@ -6926,19 +6926,19 @@
         <v>60428</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>45496</v>
+        <v>45847</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>76840</v>
+        <v>75920</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03056122393271265</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02300923187802531</v>
+        <v>0.02318706285051905</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.0388616383215099</v>
+        <v>0.03839626535939879</v>
       </c>
     </row>
     <row r="24">
@@ -6955,19 +6955,19 @@
         <v>106201</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>89228</v>
+        <v>88361</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>126149</v>
+        <v>126601</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1135095850066325</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.09536930614826902</v>
+        <v>0.09444246363504447</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1348304980295826</v>
+        <v>0.1353137538347269</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>92</v>
@@ -6976,19 +6976,19 @@
         <v>94714</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>76457</v>
+        <v>78398</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>115642</v>
+        <v>116208</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.09092488003561827</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.07339803773054482</v>
+        <v>0.07526190147155359</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.111016281196198</v>
+        <v>0.111559209439229</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>198</v>
@@ -6997,19 +6997,19 @@
         <v>200915</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>176410</v>
+        <v>173359</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>232101</v>
+        <v>230229</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.101611511618097</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.08921827463239844</v>
+        <v>0.08767555811745521</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1173841270183665</v>
+        <v>0.1164374198160068</v>
       </c>
     </row>
     <row r="25">
@@ -7026,19 +7026,19 @@
         <v>265076</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>238581</v>
+        <v>240233</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>292904</v>
+        <v>294156</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2833191896294928</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2550007293355085</v>
+        <v>0.2567664032278421</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3130623340012876</v>
+        <v>0.31440005539233</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>221</v>
@@ -7047,19 +7047,19 @@
         <v>236736</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>209276</v>
+        <v>208833</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>265141</v>
+        <v>264147</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2272656099948547</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2009038196780079</v>
+        <v>0.2004787446628582</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2545340029243287</v>
+        <v>0.2535796016337059</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>490</v>
@@ -7068,19 +7068,19 @@
         <v>501812</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>463044</v>
+        <v>463008</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>541758</v>
+        <v>541557</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2537890450011262</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2341824008430046</v>
+        <v>0.2341642292825805</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2739913015483639</v>
+        <v>0.2738897832041881</v>
       </c>
     </row>
     <row r="26">
@@ -7097,19 +7097,19 @@
         <v>503079</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>471661</v>
+        <v>472255</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>529334</v>
+        <v>531033</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5377019933199054</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5041216267796206</v>
+        <v>0.504756624139026</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5657632959880222</v>
+        <v>0.5675793826681502</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>598</v>
@@ -7118,19 +7118,19 @@
         <v>661700</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>627602</v>
+        <v>629317</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>693375</v>
+        <v>692791</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6352288998396044</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6024954908416845</v>
+        <v>0.6041418175778642</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6656372839105316</v>
+        <v>0.6650770183019745</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1093</v>
@@ -7139,19 +7139,19 @@
         <v>1164779</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1120486</v>
+        <v>1119730</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1212170</v>
+        <v>1212232</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5890811143939898</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5666802481059614</v>
+        <v>0.5662976240045869</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.613049020470447</v>
+        <v>0.6130802137372565</v>
       </c>
     </row>
     <row r="27">
@@ -7243,19 +7243,19 @@
         <v>86511</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>68893</v>
+        <v>69611</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>108422</v>
+        <v>106855</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02553795627513577</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.020337140505426</v>
+        <v>0.02054899815212028</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03200612103429728</v>
+        <v>0.03154358814426281</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>70</v>
@@ -7264,19 +7264,19 @@
         <v>71497</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>56603</v>
+        <v>57960</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>90408</v>
+        <v>90999</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02020437064516895</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01599537577803046</v>
+        <v>0.01637881436407349</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02554826051461542</v>
+        <v>0.0257151624050153</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>150</v>
@@ -7285,19 +7285,19 @@
         <v>158009</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>134105</v>
+        <v>133610</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>183716</v>
+        <v>183457</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02281296207392303</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01936174535874962</v>
+        <v>0.01929029612627174</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0265245362209051</v>
+        <v>0.02648711317041092</v>
       </c>
     </row>
     <row r="29">
@@ -7314,19 +7314,19 @@
         <v>129441</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>108868</v>
+        <v>107483</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>153428</v>
+        <v>153870</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03821071613036872</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03213761654315784</v>
+        <v>0.03172882796801684</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04529168925787814</v>
+        <v>0.04542230134619528</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>111</v>
@@ -7335,19 +7335,19 @@
         <v>115076</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>93796</v>
+        <v>95647</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>136030</v>
+        <v>140442</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03251912873288144</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02650580402215062</v>
+        <v>0.02702864148403138</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03844048740931931</v>
+        <v>0.03968728904914707</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>232</v>
@@ -7356,19 +7356,19 @@
         <v>244517</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>213832</v>
+        <v>211499</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>275736</v>
+        <v>277977</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03530281444286083</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03087265247242657</v>
+        <v>0.03053574445137991</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03981022716471136</v>
+        <v>0.04013382895466112</v>
       </c>
     </row>
     <row r="30">
@@ -7385,19 +7385,19 @@
         <v>460293</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>416395</v>
+        <v>420332</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>501185</v>
+        <v>510972</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1358777896018827</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1229191987785317</v>
+        <v>0.1240813601443887</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1479491419629751</v>
+        <v>0.1508383206761906</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>386</v>
@@ -7406,19 +7406,19 @@
         <v>401349</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>364179</v>
+        <v>365061</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>439859</v>
+        <v>437584</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1134166460297709</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1029127969643561</v>
+        <v>0.1031620308447116</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1242991327831924</v>
+        <v>0.1236562064647527</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>812</v>
@@ -7427,19 +7427,19 @@
         <v>861642</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>805808</v>
+        <v>810729</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>917802</v>
+        <v>921244</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1244021163432174</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1163409801467331</v>
+        <v>0.1170514221666128</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1325104568448355</v>
+        <v>0.1330074202564567</v>
       </c>
     </row>
     <row r="31">
@@ -7456,19 +7456,19 @@
         <v>1006760</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>951673</v>
+        <v>951635</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1060351</v>
+        <v>1063906</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2971939967077296</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2809323982554021</v>
+        <v>0.2809212866126947</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3130142515783298</v>
+        <v>0.3140636584680546</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>936</v>
@@ -7477,19 +7477,19 @@
         <v>976093</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>914136</v>
+        <v>922216</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>1027547</v>
+        <v>1031018</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2758327168151308</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2583246301402446</v>
+        <v>0.2606077520129846</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.290373090096111</v>
+        <v>0.2913541564603697</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1906</v>
@@ -7498,19 +7498,19 @@
         <v>1982852</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1904231</v>
+        <v>1909846</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>2058350</v>
+        <v>2066708</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2862802572693368</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2749290175509899</v>
+        <v>0.2757396747430597</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2971804915515657</v>
+        <v>0.2983871142271937</v>
       </c>
     </row>
     <row r="32">
@@ -7527,19 +7527,19 @@
         <v>1704546</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1642487</v>
+        <v>1640693</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1754959</v>
+        <v>1763983</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5031795412848833</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4848599744140743</v>
+        <v>0.4843301423227854</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5180613066240835</v>
+        <v>0.5207252865172145</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1830</v>
@@ -7548,19 +7548,19 @@
         <v>1974697</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1912760</v>
+        <v>1912426</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2032909</v>
+        <v>2037075</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.5580271377770479</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.540524434902149</v>
+        <v>0.5404298597846448</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.574477043031777</v>
+        <v>0.5756542990244946</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>3458</v>
@@ -7569,19 +7569,19 @@
         <v>3679244</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>3603466</v>
+        <v>3592238</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>3765397</v>
+        <v>3756465</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5312018498706619</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.5202611533007566</v>
+        <v>0.5186400888946513</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5436404798882454</v>
+        <v>0.5423508678183859</v>
       </c>
     </row>
     <row r="33">
